--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669D93D-81D0-4544-B4D6-B0C1378CBB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A203C24-A3CC-2B46-8218-58CED3EB1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="980" windowWidth="38560" windowHeight="30280" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="980" windowWidth="38560" windowHeight="30280" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carrier_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="265">
   <si>
     <t>original_carrier</t>
   </si>
@@ -574,9 +574,6 @@
     <t>unlimited_capacity</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>Capacity when p_nom=0 (MW)</t>
   </si>
   <si>
@@ -830,6 +827,9 @@
   </si>
   <si>
     <t>directional</t>
+  </si>
+  <si>
+    <t>unlimited</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2033,24 +2033,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
         <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2085,10 +2085,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2202,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2239,7 +2239,7 @@
         <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
         <v>174</v>
@@ -2260,11 +2260,11 @@
       <c r="A5" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>10000000</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2286,12 +2286,12 @@
         <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2342,32 +2342,32 @@
         <v>145</v>
       </c>
       <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
         <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
         <v>185</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2378,29 +2378,29 @@
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2411,29 +2411,29 @@
         <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2444,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2455,7 +2455,7 @@
         <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2496,10 +2496,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" t="s">
         <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2561,40 +2561,40 @@
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3004,254 +3004,254 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" t="s">
-        <v>236</v>
-      </c>
       <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
         <v>255</v>
-      </c>
-      <c r="D1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
         <v>253</v>
       </c>
-      <c r="C18" t="s">
-        <v>254</v>
-      </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3274,12 +3274,12 @@
         <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5">
         <v>16688343.26</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="5">
         <v>143301641.19999999</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="5">
         <v>36577869.850000001</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="5">
         <v>43732809.119999997</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="5">
         <v>9343347.7799999993</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="5">
         <v>16746899.1</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="5">
         <v>10169884.220000001</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B9" s="5">
         <v>21851299.98</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="5">
         <v>50351994.210000001</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="5">
         <v>4151675.83</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="5">
         <v>31919080.789999999</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B13" s="5">
         <v>25964394.539999999</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="5">
         <v>33580743.729999997</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="5">
         <v>21640147.100000001</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="5">
         <v>6196556.3099999996</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="5">
         <v>50036919.770000003</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B18" s="5">
         <v>27567058.050000001</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="5">
         <v>549820664.83000004</v>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A203C24-A3CC-2B46-8218-58CED3EB1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D856D0B-BBE0-5B4B-8110-B45C09EA9062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="980" windowWidth="38560" windowHeight="30280" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="980" windowWidth="38560" windowHeight="30280" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carrier_mapping" sheetId="1" r:id="rId1"/>
@@ -1998,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2099,7 +2099,7 @@
         <v>258</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D856D0B-BBE0-5B4B-8110-B45C09EA9062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2E6318-A412-D04C-8DA4-53A2CBB1C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="980" windowWidth="38560" windowHeight="30280" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="840" windowWidth="30940" windowHeight="30280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="carrier_mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="generator_attributes" sheetId="2" r:id="rId2"/>
-    <sheet name="carrier_order" sheetId="3" r:id="rId3"/>
-    <sheet name="global_constraints" sheetId="4" r:id="rId4"/>
-    <sheet name="file_paths" sheetId="5" r:id="rId5"/>
-    <sheet name="province_mapping" sheetId="15" r:id="rId6"/>
-    <sheet name="province_demand" sheetId="16" r:id="rId7"/>
-    <sheet name="regional_settings" sheetId="6" r:id="rId8"/>
-    <sheet name="cc_merge_rules" sheetId="7" r:id="rId9"/>
-    <sheet name="years" sheetId="8" r:id="rId10"/>
-    <sheet name="NOTES_MANUAL" sheetId="9" r:id="rId11"/>
-    <sheet name="regional_aggregation" sheetId="10" r:id="rId12"/>
-    <sheet name="lines_config" sheetId="11" r:id="rId13"/>
-    <sheet name="links_config" sheetId="12" r:id="rId14"/>
-    <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId15"/>
-    <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId16"/>
+    <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
+    <sheet name="carrier_mapping" sheetId="1" r:id="rId2"/>
+    <sheet name="generator_attributes" sheetId="2" r:id="rId3"/>
+    <sheet name="carrier_order" sheetId="3" r:id="rId4"/>
+    <sheet name="global_constraints" sheetId="4" r:id="rId5"/>
+    <sheet name="file_paths" sheetId="5" r:id="rId6"/>
+    <sheet name="province_mapping" sheetId="15" r:id="rId7"/>
+    <sheet name="province_demand" sheetId="16" r:id="rId8"/>
+    <sheet name="regional_settings" sheetId="6" r:id="rId9"/>
+    <sheet name="cc_merge_rules" sheetId="7" r:id="rId10"/>
+    <sheet name="years" sheetId="8" r:id="rId11"/>
+    <sheet name="NOTES_MANUAL" sheetId="9" r:id="rId12"/>
+    <sheet name="regional_aggregation" sheetId="10" r:id="rId13"/>
+    <sheet name="lines_config" sheetId="11" r:id="rId14"/>
+    <sheet name="links_config" sheetId="12" r:id="rId15"/>
+    <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId16"/>
+    <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="274">
   <si>
     <t>original_carrier</t>
   </si>
@@ -517,9 +518,6 @@
     <t>circuits_rule</t>
   </si>
   <si>
-    <t>sum, max, or mean</t>
-  </si>
-  <si>
     <t>s_nom_rule</t>
   </si>
   <si>
@@ -565,9 +563,6 @@
     <t>default_efficiency</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Transmission efficiency (1.0 = 100%)</t>
   </si>
   <si>
@@ -830,6 +825,39 @@
   </si>
   <si>
     <t>unlimited</t>
+  </si>
+  <si>
+    <t>group3</t>
+  </si>
+  <si>
+    <t>경상</t>
+  </si>
+  <si>
+    <t>전라</t>
+  </si>
+  <si>
+    <t>충청</t>
+  </si>
+  <si>
+    <t>sum, max, or mean of num_parallel</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>snapshot_start</t>
+  </si>
+  <si>
+    <t>snapshot_end</t>
+  </si>
+  <si>
+    <t>attributes</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>e.g. 4 means model 4 hours unit not 1 hour</t>
   </si>
 </sst>
 </file>
@@ -1265,6 +1293,1332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F667B4A-1409-A340-9A81-2DB2EB65E934}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A134"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>0.95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>10000000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -1423,1202 +2777,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A134"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5">
-        <v>10000000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2671,10 +2835,10 @@
         <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2694,10 +2858,10 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2720,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2734,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
         <v>0.7</v>
@@ -2766,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2821,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2889,55 +3053,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2992,266 +3122,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718CD71-DE35-F64E-B9B7-D44F9DC61B7A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>216</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>217</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>219</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>240</v>
       </c>
-      <c r="C6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>221</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>222</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>242</v>
       </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>223</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>243</v>
       </c>
-      <c r="C9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>224</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>244</v>
       </c>
-      <c r="C10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>225</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>226</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>246</v>
       </c>
-      <c r="C12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>227</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>247</v>
       </c>
-      <c r="C13" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>228</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>248</v>
       </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>229</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>249</v>
       </c>
-      <c r="C15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>230</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>250</v>
       </c>
-      <c r="C16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>251</v>
       </c>
-      <c r="C17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" t="s">
-        <v>253</v>
-      </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="E18" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2C3ABC-B8C4-DA4F-956C-291A8E787444}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3274,12 +3458,12 @@
         <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B2" s="5">
         <v>16688343.26</v>
@@ -3287,7 +3471,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="5">
         <v>143301641.19999999</v>
@@ -3295,7 +3479,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="5">
         <v>36577869.850000001</v>
@@ -3303,7 +3487,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="5">
         <v>43732809.119999997</v>
@@ -3311,7 +3495,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="5">
         <v>9343347.7799999993</v>
@@ -3319,7 +3503,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5">
         <v>16746899.1</v>
@@ -3327,7 +3511,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="5">
         <v>10169884.220000001</v>
@@ -3335,7 +3519,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" s="5">
         <v>21851299.98</v>
@@ -3343,7 +3527,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B10" s="5">
         <v>50351994.210000001</v>
@@ -3351,7 +3535,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" s="5">
         <v>4151675.83</v>
@@ -3359,7 +3543,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12" s="5">
         <v>31919080.789999999</v>
@@ -3367,7 +3551,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" s="5">
         <v>25964394.539999999</v>
@@ -3375,7 +3559,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="5">
         <v>33580743.729999997</v>
@@ -3383,7 +3567,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15" s="5">
         <v>21640147.100000001</v>
@@ -3391,7 +3575,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="5">
         <v>6196556.3099999996</v>
@@ -3399,7 +3583,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B17" s="5">
         <v>50036919.770000003</v>
@@ -3407,7 +3591,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B18" s="5">
         <v>27567058.050000001</v>
@@ -3415,7 +3599,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="5">
         <v>549820664.83000004</v>
@@ -3426,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3453,65 +3637,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,35 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2E6318-A412-D04C-8DA4-53A2CBB1C328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E76C8F-FBD0-FB44-A6E8-A54F82C2E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="840" windowWidth="30940" windowHeight="30280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10660" yWindow="4480" windowWidth="40000" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
     <sheet name="carrier_mapping" sheetId="1" r:id="rId2"/>
     <sheet name="generator_attributes" sheetId="2" r:id="rId3"/>
-    <sheet name="carrier_order" sheetId="3" r:id="rId4"/>
-    <sheet name="global_constraints" sheetId="4" r:id="rId5"/>
-    <sheet name="file_paths" sheetId="5" r:id="rId6"/>
-    <sheet name="province_mapping" sheetId="15" r:id="rId7"/>
-    <sheet name="province_demand" sheetId="16" r:id="rId8"/>
-    <sheet name="regional_settings" sheetId="6" r:id="rId9"/>
-    <sheet name="cc_merge_rules" sheetId="7" r:id="rId10"/>
-    <sheet name="years" sheetId="8" r:id="rId11"/>
-    <sheet name="NOTES_MANUAL" sheetId="9" r:id="rId12"/>
-    <sheet name="regional_aggregation" sheetId="10" r:id="rId13"/>
-    <sheet name="lines_config" sheetId="11" r:id="rId14"/>
-    <sheet name="links_config" sheetId="12" r:id="rId15"/>
-    <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId16"/>
-    <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId17"/>
+    <sheet name="resample_rules" sheetId="18" r:id="rId4"/>
+    <sheet name="carrier_order" sheetId="3" r:id="rId5"/>
+    <sheet name="global_constraints" sheetId="4" r:id="rId6"/>
+    <sheet name="file_paths" sheetId="5" r:id="rId7"/>
+    <sheet name="province_mapping" sheetId="15" r:id="rId8"/>
+    <sheet name="province_demand" sheetId="16" r:id="rId9"/>
+    <sheet name="regional_settings" sheetId="6" r:id="rId10"/>
+    <sheet name="cc_merge_rules" sheetId="7" r:id="rId11"/>
+    <sheet name="years" sheetId="8" r:id="rId12"/>
+    <sheet name="NOTES_MANUAL" sheetId="9" r:id="rId13"/>
+    <sheet name="regional_aggregation" sheetId="10" r:id="rId14"/>
+    <sheet name="lines_config" sheetId="11" r:id="rId15"/>
+    <sheet name="links_config" sheetId="12" r:id="rId16"/>
+    <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId17"/>
+    <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="285">
   <si>
     <t>original_carrier</t>
   </si>
@@ -858,6 +859,39 @@
   </si>
   <si>
     <t>e.g. 4 means model 4 hours unit not 1 hour</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>generators</t>
+  </si>
+  <si>
+    <t>CRITICAL: Ramp limits are per snapshot, must scale with weights</t>
+  </si>
+  <si>
+    <t>storage_units</t>
+  </si>
+  <si>
+    <t>Ramp limit per snapshot</t>
+  </si>
+  <si>
+    <t>standing_loss</t>
+  </si>
+  <si>
+    <t>CRITICAL: Standing loss is per hour, must scale to per snapshot</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>e_sum_max</t>
+  </si>
+  <si>
+    <t>e_sum_min</t>
+  </si>
+  <si>
+    <t>singlenode</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -992,6 +1026,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,10 +1332,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1326,7 +1365,7 @@
         <v>268</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -1336,8 +1375,8 @@
       <c r="A4" t="s">
         <v>269</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="6">
+        <v>45292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1345,15 +1384,45 @@
         <v>270</v>
       </c>
       <c r="B5">
-        <v>480</v>
+        <v>8780</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1414,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1437,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A134"/>
   <sheetViews>
@@ -1985,12 +2054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2099,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2195,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2307,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2512,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2782,7 +2851,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2986,6 +3055,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8AAE8-D9A2-474E-94A7-635D5BD941DD}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -3053,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3067,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -3122,17 +3330,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718CD71-DE35-F64E-B9B7-D44F9DC61B7A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F18" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -3148,8 +3356,11 @@
       <c r="E1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -3165,8 +3376,11 @@
       <c r="E2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -3182,8 +3396,11 @@
       <c r="E3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -3199,8 +3416,11 @@
       <c r="E4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -3216,8 +3436,11 @@
       <c r="E5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -3233,8 +3456,11 @@
       <c r="E6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -3250,8 +3476,11 @@
       <c r="E7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3267,8 +3496,11 @@
       <c r="E8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -3284,8 +3516,11 @@
       <c r="E9" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -3301,8 +3536,11 @@
       <c r="E10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -3318,8 +3556,11 @@
       <c r="E11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -3335,8 +3576,11 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -3352,8 +3596,11 @@
       <c r="E13" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -3369,8 +3616,11 @@
       <c r="E14" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>227</v>
       </c>
@@ -3386,8 +3636,11 @@
       <c r="E15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -3403,8 +3656,11 @@
       <c r="E16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -3420,8 +3676,11 @@
       <c r="E17" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>230</v>
       </c>
@@ -3436,6 +3695,9 @@
       </c>
       <c r="E18" t="s">
         <v>266</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2C3ABC-B8C4-DA4F-956C-291A8E787444}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3608,33 +3870,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E76C8F-FBD0-FB44-A6E8-A54F82C2E9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9CD9D-3C58-D644-8188-27F0F40E2180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="4480" windowWidth="40000" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F667B4A-1409-A340-9A81-2DB2EB65E934}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2107,7 +2107,7 @@
         <v>258</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>260</v>
@@ -2148,7 +2148,7 @@
         <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
@@ -3335,7 +3335,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F2:F18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9CD9D-3C58-D644-8188-27F0F40E2180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911775D-64D7-2B46-8991-7601BAFD288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911775D-64D7-2B46-8991-7601BAFD288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3B477-FD04-8F4B-A939-9186F751349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19400" yWindow="3760" windowWidth="29520" windowHeight="22160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="288">
   <si>
     <t>original_carrier</t>
   </si>
@@ -892,6 +892,15 @@
   </si>
   <si>
     <t>singlenode</t>
+  </si>
+  <si>
+    <t>committable</t>
+  </si>
+  <si>
+    <t>min_up_time</t>
+  </si>
+  <si>
+    <t>min_down_time</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1027,6 +1036,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1332,7 +1344,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1365,7 +1377,7 @@
         <v>268</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -2058,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2107,7 +2119,7 @@
         <v>258</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>260</v>
@@ -2848,10 +2860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2862,9 +2874,12 @@
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2886,8 +2901,17 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2909,8 +2933,17 @@
       <c r="G2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +2965,17 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2955,8 +2997,17 @@
       <c r="G4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2978,8 +3029,17 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3001,8 +3061,17 @@
       <c r="G6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3024,8 +3093,17 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -3046,6 +3124,67 @@
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3B477-FD04-8F4B-A939-9186F751349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD372E5-E7D2-0F40-8D10-07F90B5C57B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="3760" windowWidth="29520" windowHeight="22160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22580" yWindow="8500" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
@@ -32,12 +32,25 @@
     <sheet name="generator_region_agg_rules" sheetId="13" r:id="rId17"/>
     <sheet name="generator_t_aggregator_rules" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="291">
   <si>
     <t>original_carrier</t>
   </si>
@@ -901,6 +914,15 @@
   </si>
   <si>
     <t>min_down_time</t>
+  </si>
+  <si>
+    <t>target_year</t>
+  </si>
+  <si>
+    <t>target_load</t>
+  </si>
+  <si>
+    <t>MWh</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1036,9 +1058,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F667B4A-1409-A340-9A81-2DB2EB65E934}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1366,10 +1385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="B2">
-        <v>2024</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1377,7 +1396,7 @@
         <v>268</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>273</v>
@@ -1388,7 +1407,7 @@
         <v>269</v>
       </c>
       <c r="B4" s="6">
-        <v>45292</v>
+        <v>47484</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1396,7 +1415,26 @@
         <v>270</v>
       </c>
       <c r="B5">
-        <v>8780</v>
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7">
+        <v>700000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
@@ -2901,13 +2939,13 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>287</v>
       </c>
     </row>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD372E5-E7D2-0F40-8D10-07F90B5C57B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B7729-B4A3-9842-8902-82B7D1F88124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22580" yWindow="8500" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B7729-B4A3-9842-8902-82B7D1F88124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE93C6A-9729-1A47-969E-ACA6C1BE1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22580" yWindow="8500" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/config/config_group.xlsx
+++ b/config/config_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/github/pypsa_alternative/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE93C6A-9729-1A47-969E-ACA6C1BE1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE0B97-2CFD-7748-8E4A-547D3CC06FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="8500" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22580" yWindow="8500" windowWidth="27700" windowHeight="17540" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modelling_setting" sheetId="17" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F667B4A-1409-A340-9A81-2DB2EB65E934}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2108,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2198,7 +2198,7 @@
         <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
